--- a/Tabla_variables_migracion.xlsx
+++ b/Tabla_variables_migracion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSALYN\Desktop\Diplomatura PUCP CIENCIAS DE DATOS\5_Fund. R Intermedio\Trabajo de Investigación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE344290-AC58-4711-8684-B7C73F57D616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835FB2D-4E16-427F-8CF5-83E54D893177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3996" yWindow="2364" windowWidth="17280" windowHeight="9144" xr2:uid="{120CD3A6-A886-4549-B466-17595E6D2EF4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{120CD3A6-A886-4549-B466-17595E6D2EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Nombre</t>
   </si>
@@ -48,9 +48,6 @@
     <t>PERCEPCION_DISCRIMINADO</t>
   </si>
   <si>
-    <t>Variable dicotómica que mide la percepción de la población venezolana sobre discriminación.</t>
-  </si>
-  <si>
     <t>ENPOVE, Módulo 11, P. 701 ¿USTED, SE HA SENTIDO DISCRIMINADO POR SER VENEZOLANO DESDE QUE LLEGÓ AL PERÚ?</t>
   </si>
   <si>
@@ -84,18 +81,12 @@
     <t>ASISTENCIA_INSTITUCIONAL</t>
   </si>
   <si>
-    <t>Variable dicotómica que mide el tipo de ayuda institucional a la población venezolana.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ASISTENCIA_ALIMENTOS, ASISTENCIA_ALOJAMIENTO, ASISTENCIA_SALUD, ASISTENCIA_EMOCIONAL, ASISTENCIA_LEGAL, ASISTENCIA_OTRO </t>
   </si>
   <si>
     <t>INST_ASIST_IGLESIA, INST_ASIST_INTERNACIONAL, INST_ASIST_ONGCIVIL, INST_ASIST_ESTADO, INST_ASIST_ORG_VENEZ, INST_ASIST_OTRA, INST_ASIST_NO_SABE</t>
   </si>
   <si>
-    <t>Variable dicotómica que mide la participación social de la población venezolana en Venezuela.</t>
-  </si>
-  <si>
     <t>PARTICIPA_IGLESIA, PARTICIPA_VECINOS, PARTICIPA_PADRES, PARTICIPA_VENEZOLANOS, PARTICIPA_REFUJIADOS, PARTICIPA_JUVENILES,  PARTICIPA_DEPORTIVOS, PARTICIPA_OTRAS, PARTICIPA_NINGUNA.</t>
   </si>
   <si>
@@ -105,12 +96,6 @@
     <t>NECESIDADES_ALIMENTOS, NECESIDADES_MEDICAS, NECESIDADES_REGULARMIGRA, NECESIDADES_EMPLEO, NECESIDADES_CAPACITACION, NECESIDADES_ARTICULOS_BAS, NECESIDADES_ALOJAMIENTO, NECESIDADES_REUNIR_FAMILIA, NECESIDADES_OTROS, NECESIDADES_CUBIERTAS</t>
   </si>
   <si>
-    <t>ESTRATO_SOCIOECONOMICO</t>
-  </si>
-  <si>
-    <t>Mide en una escala del 1 al 3 el nivel socioeconómico "bajo", "medio", "alto".</t>
-  </si>
-  <si>
     <t>SEXO</t>
   </si>
   <si>
@@ -123,24 +108,12 @@
     <t>EDAD_AÑOS</t>
   </si>
   <si>
-    <t>Definido por INEI</t>
-  </si>
-  <si>
     <t>ENPOVE, Módulo 8, P 601. LA SEMANA PASADA, DEL… AL… ¿TUVO UD. ALGÚN TRABAJO? (sin contar con los quehaceres del hogar)</t>
   </si>
   <si>
-    <t>Variable dicotómica que mide si contó con un trabajo la semana pasada.</t>
-  </si>
-  <si>
     <t>ENPOVE, Módulo 8, P 618. LA SEMANA PASADA, ¿HIZO ALGO PARA CONSEGUIR TRABAJO?</t>
   </si>
   <si>
-    <t>P618_desocupados</t>
-  </si>
-  <si>
-    <t>P601_tuvo_empleo</t>
-  </si>
-  <si>
     <t>Variable continua</t>
   </si>
   <si>
@@ -150,46 +123,94 @@
     <t>ENPOVE, Módulo 8, P 615.EN SU OCUPACION PRINCIPAL, ¿CUÁL FUE SU GANANCIA NETA EN EL MES ANTERIOR? DINERO</t>
   </si>
   <si>
-    <t>P615_MON_GANANCIA_NETA</t>
-  </si>
-  <si>
-    <t>P614_MON_INGRESO_TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P608_OCUP_PRINCIPAL</t>
-  </si>
-  <si>
-    <t>ENPOVE, Módulo 8, P 608.USTED. SE DESEMPEÑÓ EN SU OCUPACIÓN PRINCIPAL O NEGOCIO COMO</t>
-  </si>
-  <si>
-    <t>P611_HORAS_TRABAJADAS</t>
-  </si>
-  <si>
     <t>ENPOVE, Módulo 8, P 611.¿NORMALMENTE, ¿CUÁNTAS HORAS TRABAJA A LA SEMANA EN TODAS SUS OCUPACIONES?</t>
   </si>
   <si>
-    <t>Esta pregunta se divide en 10 opciones de respuesta, cuyas variables son dicotómicas.</t>
-  </si>
-  <si>
-    <t>Esta pregunta se divide en 6 opciones de respuesta, cuyas variables son dicotómicas.</t>
-  </si>
-  <si>
-    <t>Esta pregunta se divide en 7 opciones de respuesta, cuyas variables son dicotómicas.</t>
-  </si>
-  <si>
-    <t>Esta pregunta se divide en 9 opciones de respuesta, cuyas variables son dicotómicas.</t>
-  </si>
-  <si>
-    <t>Esta pregunta se divide en 5 opciones de respuesta, cuyas variables son dicotómicas.</t>
-  </si>
-  <si>
-    <t>Variable dicotómica para determinar  "hombres" y "mujeres".</t>
-  </si>
-  <si>
-    <t>Variable dicotómica que mide si trabajó la semana pasada.</t>
-  </si>
-  <si>
     <t>PARTICIPACION_ASOC_VENZ</t>
+  </si>
+  <si>
+    <t>Tratamiento</t>
+  </si>
+  <si>
+    <t>P601 = tuvo_trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P614 = ingreso_total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P615 = ganancia_total </t>
+  </si>
+  <si>
+    <t>P611= horas_trabajadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable dicotómica </t>
+  </si>
+  <si>
+    <t>Variable dicotómica</t>
+  </si>
+  <si>
+    <t>6 opciones de respuestas con valores dicotómicas.</t>
+  </si>
+  <si>
+    <t>10 opciones de respuestas con valores dicotómicas.</t>
+  </si>
+  <si>
+    <t>7 opciones de respuestas con valores dicotómicas.</t>
+  </si>
+  <si>
+    <t>9 opciones de respuestas con valores dicotómicas.</t>
+  </si>
+  <si>
+    <t>5 opciones de respuestas con valores dicotómicas.</t>
+  </si>
+  <si>
+    <t>Grupo_etario = factor</t>
+  </si>
+  <si>
+    <t>Proporción de número de discriminados</t>
+  </si>
+  <si>
+    <t>Media de números de lugares que se ha sentido discriminado</t>
+  </si>
+  <si>
+    <t>Proporción de los que recibieron ayuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media número de asistencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media de número de instituciones </t>
+  </si>
+  <si>
+    <t>Proporción de personas que participan en asociaciones en Venezuela</t>
+  </si>
+  <si>
+    <t>Media número de espacios que participa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media de participción virtual </t>
+  </si>
+  <si>
+    <t>Media de número de necesidades</t>
+  </si>
+  <si>
+    <t>P618 = desocupados</t>
+  </si>
+  <si>
+    <t>Proporción de las personas que tuvieron trabajo</t>
+  </si>
+  <si>
+    <t>Proporción de los desocupados que buscaron trabajo</t>
+  </si>
+  <si>
+    <t>Media de inngreso total</t>
+  </si>
+  <si>
+    <t>Media de ganancia total</t>
+  </si>
+  <si>
+    <t>Media de horas trabajadas</t>
   </si>
 </sst>
 </file>
@@ -542,20 +563,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC36608-6019-42F6-AA37-C732A6D4BE9E}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="102.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="102.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,205 +585,234 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
